--- a/Plantilla_Descripciones.xlsx
+++ b/Plantilla_Descripciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\OneDrive - Cencosud\Escritorio\creador emcoionales\PARIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\OneDrive - Cencosud\Escritorio\creador emcoionales\rgional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F0E64B-619D-4539-9787-FB9637B6AF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{888B58DA-21DC-4E0E-92C3-5772F0B735D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Hoja1" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plantilla!$A$1:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plantilla!$A$1:$L$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>SKU</t>
   </si>
@@ -1037,13 +1037,16 @@
   </si>
   <si>
     <t>9) Archivos de Apoyo Supermercados</t>
+  </si>
+  <si>
+    <t>Guía de Tallas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1100,12 +1103,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1180,6 +1177,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF485760"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1238,12 +1247,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1253,18 +1262,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1275,28 +1281,22 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1304,25 +1304,38 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1668,11 +1681,11 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
@@ -1680,18 +1693,19 @@
     <col min="1" max="1" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="19.58203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.58203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.58203125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="17.4140625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="23.4140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="63.08203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.58203125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="17.4140625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="69.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" style="3" customWidth="1"/>
     <col min="10" max="10" width="26.75" style="3" customWidth="1"/>
     <col min="11" max="11" width="25.33203125" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="10.6640625" style="3"/>
+    <col min="12" max="12" width="15.75" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="10.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1">
+    <row r="1" spans="1:12" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1704,10 +1718,10 @@
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -1725,20 +1739,44 @@
       <c r="K1" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.5">
-      <c r="A2" s="24"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="28"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="27"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="23"/>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="34" customFormat="1" ht="15.5">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="H2" s="36"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="35"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.5">
+      <c r="H3" s="21"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="35"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.5">
+      <c r="I16" s="21"/>
+    </row>
+    <row r="19" spans="7:8">
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="7:8" ht="15.5">
+      <c r="G20" s="21"/>
+    </row>
+    <row r="22" spans="7:8">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="7:8" ht="15.5">
+      <c r="G23" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Selecciona el nombre del Botón" error="Selecciona un valor" promptTitle="Selecciona el nombre del Botón" prompt="El valor asignado será el nombre del botón que se exportará en tu HTML" sqref="J1" xr:uid="{58D4D367-2441-4F6E-B5BF-3EA63E54DAE8}"/>
@@ -1768,366 +1806,366 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7723370-56E9-4881-9B7E-A550A5CE3D70}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView showGridLines="0" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="10" customWidth="1"/>
-    <col min="2" max="7" width="10.6640625" style="10"/>
-    <col min="8" max="8" width="4.83203125" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="10.6640625" style="10"/>
+    <col min="1" max="1" width="2.5" style="9" customWidth="1"/>
+    <col min="2" max="7" width="10.6640625" style="9"/>
+    <col min="8" max="8" width="4.83203125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="10.6640625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.5" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" s="14" customFormat="1" ht="14.5">
-      <c r="B4" s="13" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" s="13" customFormat="1" ht="14.5">
+      <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="14" customFormat="1" ht="6.5" customHeight="1">
-      <c r="B5" s="15"/>
-    </row>
-    <row r="6" spans="1:14" s="14" customFormat="1" ht="14.5">
-      <c r="B6" s="16" t="s">
+    <row r="5" spans="1:14" s="13" customFormat="1" ht="6.5" customHeight="1">
+      <c r="B5" s="14"/>
+    </row>
+    <row r="6" spans="1:14" s="13" customFormat="1" ht="14.5">
+      <c r="B6" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="14" customFormat="1" ht="14.5">
-      <c r="B7" s="16" t="s">
+    <row r="7" spans="1:14" s="13" customFormat="1" ht="14.5">
+      <c r="B7" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="1:14" s="14" customFormat="1" ht="14.5">
-      <c r="B10" s="17" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" s="13" customFormat="1" ht="14.5">
+      <c r="B10" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="14" customFormat="1" ht="14.5">
-      <c r="B11" s="15" t="s">
+    <row r="11" spans="1:14" s="13" customFormat="1" ht="14.5">
+      <c r="B11" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="14" customFormat="1" ht="14.5">
-      <c r="B12" s="17" t="s">
+    <row r="12" spans="1:14" s="13" customFormat="1" ht="14.5">
+      <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="14" customFormat="1" ht="14.5">
-      <c r="B13" s="15" t="s">
+    <row r="13" spans="1:14" s="13" customFormat="1" ht="14.5">
+      <c r="B13" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="14" customFormat="1" ht="14.5">
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="1:14" s="13" customFormat="1" ht="14.5">
+      <c r="B14" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="14" customFormat="1" ht="14.5">
-      <c r="B15" s="15" t="s">
+    <row r="15" spans="1:14" s="13" customFormat="1" ht="14.5">
+      <c r="B15" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="14" customFormat="1" ht="7" customHeight="1">
-      <c r="B16" s="15"/>
-    </row>
-    <row r="17" spans="2:14" s="14" customFormat="1" ht="14.5">
-      <c r="B17" s="15" t="s">
+    <row r="16" spans="1:14" s="13" customFormat="1" ht="7" customHeight="1">
+      <c r="B16" s="14"/>
+    </row>
+    <row r="17" spans="2:14" s="13" customFormat="1" ht="14.5">
+      <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" spans="2:14" s="14" customFormat="1" ht="14.5">
-      <c r="B20" s="17" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="2:14" s="13" customFormat="1" ht="14.5">
+      <c r="B20" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="2:14" s="14" customFormat="1" ht="14.5">
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="2:14" s="13" customFormat="1" ht="14.5">
+      <c r="B21" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:14" s="14" customFormat="1" ht="14.5">
-      <c r="B22" s="18" t="s">
+    <row r="22" spans="2:14" s="13" customFormat="1" ht="14.5">
+      <c r="B22" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:14" s="14" customFormat="1" ht="14.5">
-      <c r="B23" s="18" t="s">
+    <row r="23" spans="2:14" s="13" customFormat="1" ht="14.5">
+      <c r="B23" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:14" s="14" customFormat="1" ht="14.5">
-      <c r="B24" s="21" t="s">
+    <row r="24" spans="2:14" s="13" customFormat="1" ht="14.5">
+      <c r="B24" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="2:14" s="14" customFormat="1" ht="14.5">
-      <c r="B25" s="21" t="s">
+    <row r="25" spans="2:14" s="13" customFormat="1" ht="14.5">
+      <c r="B25" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="2:14" s="14" customFormat="1" ht="14.5">
-      <c r="B26" s="17" t="s">
+    <row r="26" spans="2:14" s="13" customFormat="1" ht="14.5">
+      <c r="B26" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="19" t="s">
+      <c r="I26" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:14" s="14" customFormat="1" ht="14.5">
-      <c r="B27" s="17" t="s">
+    <row r="27" spans="2:14" s="13" customFormat="1" ht="14.5">
+      <c r="B27" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:14" s="14" customFormat="1" ht="14.5">
-      <c r="B28" s="17" t="s">
+    <row r="28" spans="2:14" s="13" customFormat="1" ht="14.5">
+      <c r="B28" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:14" s="14" customFormat="1" ht="14.5">
-      <c r="B29" s="17" t="s">
+    <row r="29" spans="2:14" s="13" customFormat="1" ht="14.5">
+      <c r="B29" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
     </row>
     <row r="32" spans="2:14" ht="7" customHeight="1">
-      <c r="B32" s="8"/>
+      <c r="B32" s="7"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="2:14">
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="2:14">
-      <c r="B39" s="7"/>
+      <c r="B39" s="6"/>
     </row>
     <row r="40" spans="2:14">
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
     </row>
     <row r="41" spans="2:14" ht="9" customHeight="1">
-      <c r="B41" s="8"/>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="2:14">
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="45" spans="2:14">
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
     </row>
     <row r="46" spans="2:14" ht="6.5" customHeight="1"/>
     <row r="47" spans="2:14">
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="2:14">
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="19" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="2:14">
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
     </row>
     <row r="51" spans="2:14" ht="10" customHeight="1"/>
     <row r="52" spans="2:14">
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="53" spans="2:14">
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="55" spans="2:14">
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="34"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
     </row>
     <row r="56" spans="2:14" ht="10.5" customHeight="1"/>
     <row r="57" spans="2:14">
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="58" spans="2:14">
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2185,6 +2223,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Estado xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">PENDIENTE</Estado>
@@ -2196,15 +2243,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2481,20 +2519,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{004C00E6-E16C-4438-976E-CCE2EC5F223E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3561AA-2E2E-4F89-9843-E28D57B3C4EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5"/>
     <ds:schemaRef ds:uri="fdc75039-bc8c-474c-9431-d14a0cbc6ed1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{004C00E6-E16C-4438-976E-CCE2EC5F223E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Plantilla_Descripciones.xlsx
+++ b/Plantilla_Descripciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\OneDrive - Cencosud\Escritorio\creador emcoionales\rgional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{888B58DA-21DC-4E0E-92C3-5772F0B735D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8B06BAD-F4BB-407A-98BA-BFEDDA5266B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1683,9 +1683,9 @@
   </sheetPr>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
@@ -1778,13 +1778,14 @@
   </sheetData>
   <autoFilter ref="A1:L3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="6">
+  <dataValidations count="7">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Selecciona el nombre del Botón" error="Selecciona un valor" promptTitle="Selecciona el nombre del Botón" prompt="El valor asignado será el nombre del botón que se exportará en tu HTML" sqref="J1" xr:uid="{58D4D367-2441-4F6E-B5BF-3EA63E54DAE8}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Agrega la URL" prompt="Copia acá la URL del logo de la marca, debe estar alojada en nuestros servidores internos." sqref="H1" xr:uid="{7EBD71B9-1EFD-4DA9-A871-25C354788B7D}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="URL de video YouTube" prompt="Copia acá la URL del video" sqref="I1" xr:uid="{208F1013-8476-4515-94BC-5F6767B5B78F}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Descripción corta del producto" prompt="Máximo 160 caracteres" sqref="C1" xr:uid="{F8596A41-6974-4826-B1EF-70DC55F8F7C0}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="URL descargable" prompt="Copia acá la URL del archivo que se descargará desde el botón asignado." sqref="K1" xr:uid="{D6E7040A-E391-44AA-B05D-A84C302C89FC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="URL descargable" prompt="Copia acá el nombre del archivo más la extensión que se descargará desde el botón asignado. (Ej: 1380003-70.pdf)" sqref="K1" xr:uid="{D6E7040A-E391-44AA-B05D-A84C302C89FC}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Descripción larga del producto" prompt="Agrega en texto plano la descripción del producto, este texto será posteriormente exportado en formato HTML" sqref="C1:D1" xr:uid="{3354DBC6-3E02-40D3-AEC1-1DFA8EBC5EC8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Guía de Tallas" prompt="Copia acá el nombre del archivo más la extensión que se descargará desde el botón asignado. (Ej: 1380003-80.pdf)" sqref="L1" xr:uid="{7E74F626-A834-44C8-A28A-B42BBA1F78B5}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2223,29 +2224,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Estado xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">PENDIENTE</Estado>
-    <Responsable xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">Asignar</Responsable>
-    <TaxCatchAll xmlns="fdc75039-bc8c-474c-9431-d14a0cbc6ed1" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B869598098E27B4E8174F3E7E3DF9850" ma:contentTypeVersion="25" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2fe4687d3c4ddfb9f07c8193b890e5a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5" xmlns:ns3="fdc75039-bc8c-474c-9431-d14a0cbc6ed1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14af53c225958a97363547b142f1ba32" ns2:_="" ns3:_="">
     <xsd:import namespace="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5"/>
@@ -2518,10 +2496,44 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Estado xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">PENDIENTE</Estado>
+    <Responsable xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">Asignar</Responsable>
+    <TaxCatchAll xmlns="fdc75039-bc8c-474c-9431-d14a0cbc6ed1" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{004C00E6-E16C-4438-976E-CCE2EC5F223E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E68785C-58D5-4A71-9F35-4731966D4909}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5"/>
+    <ds:schemaRef ds:uri="fdc75039-bc8c-474c-9431-d14a0cbc6ed1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2538,20 +2550,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E68785C-58D5-4A71-9F35-4731966D4909}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{004C00E6-E16C-4438-976E-CCE2EC5F223E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5"/>
-    <ds:schemaRef ds:uri="fdc75039-bc8c-474c-9431-d14a0cbc6ed1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>